--- a/biology/Botanique/Dichapetalaceae/Dichapetalaceae.xlsx
+++ b/biology/Botanique/Dichapetalaceae/Dichapetalaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dichapetalaceae (les Dichapétalacées) sont une famille de plantes à fleurs dicotylédones de l'ordre des Malpighiales comprenant plus de 160 espèces réparties en 2 à 5 genres.
 Ce sont des arbres, des arbustes ou des lianes, certains des zones arides, des régions subtropicales à tropicales.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Dichapetalum non latinisé du grec δίχα / dicha, « en deux », et πετάλων / petalon, pétale, en référence aux pétales bilobées de la plante.
 </t>
@@ -543,11 +557,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique APG (1998)[1] a déplacé cette famille dans l'ordre des Malpighiales.
-La classification phylogénétique APG II (2003)[2] propose optionnellement d'intégrer cette famille à celle des Chrysobalanaceae.
-La classification phylogénétique APG III (2009)[3], qui n'a jamais recours à des familles optionnelles, cette famille est reconnue.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique APG (1998) a déplacé cette famille dans l'ordre des Malpighiales.
+La classification phylogénétique APG II (2003) propose optionnellement d'intégrer cette famille à celle des Chrysobalanaceae.
+La classification phylogénétique APG III (2009), qui n'a jamais recours à des familles optionnelles, cette famille est reconnue.
 </t>
         </is>
       </c>
@@ -576,16 +592,18 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (19 mai 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (19 mai 2010) :
 genre Dichapetalum Thouars
 genre Stephanopodium (en) Poepp.
 genre Tapura Aubl.
-Selon NCBI  (19 mai 2010)[5] :
+Selon NCBI  (19 mai 2010) :
 genre Dichapetalum
 genre Tapura
-Selon DELTA Angio           (19 mai 2010)[6] :
+Selon DELTA Angio           (19 mai 2010) :
 genre Dichapetalum
 genre Falya (en)
 genre Gonypetalum (es)
@@ -618,9 +636,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (19 mai 2010)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (19 mai 2010) :
 genre Dichapetalum
 Dichapetalum brownii
 Dichapetalum crassifolium
